--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\excelQuanLyHoSo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7D409-E9DE-481D-A7EA-A905B2A269B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B5056-80F5-42BF-8085-0D47B85165E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6500D19-DEB5-4622-BC80-384F250A846E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03ABA2C1-32B5-4CA4-8F80-AADE3ACD1D4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -85,13 +82,40 @@
     <t>TieuSu</t>
   </si>
   <si>
+    <t>taikhoan1</t>
+  </si>
+  <si>
+    <t>tài khoản 1</t>
+  </si>
+  <si>
     <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
   </si>
   <si>
-    <t>quyanh</t>
-  </si>
-  <si>
-    <t>diep</t>
+    <t>taikhoan2</t>
+  </si>
+  <si>
+    <t>taikhoan3</t>
+  </si>
+  <si>
+    <t>taikhoan4</t>
+  </si>
+  <si>
+    <t>taikhoan5</t>
+  </si>
+  <si>
+    <t>tài khoản 2</t>
+  </si>
+  <si>
+    <t>tài khoản 3</t>
+  </si>
+  <si>
+    <t>tài khoản 4</t>
+  </si>
+  <si>
+    <t>tài khoản 5</t>
+  </si>
+  <si>
+    <t>13/7/2000</t>
   </si>
 </sst>
 </file>
@@ -133,15 +157,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,25 +182,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}" name="Table1" displayName="Table1" ref="A1:P21" totalsRowShown="0">
-  <autoFilter ref="A1:P21" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}"/>
-  <tableColumns count="16">
-    <tableColumn id="16" xr3:uid="{3D56AED3-5524-4B68-9FFF-A957441F8C26}" name="STT"/>
-    <tableColumn id="1" xr3:uid="{FF61D839-866A-4704-99CF-09C59F6E9C3D}" name="UserName"/>
-    <tableColumn id="2" xr3:uid="{9525867C-2307-4A6E-85D6-561D0F4027BE}" name="Password"/>
-    <tableColumn id="3" xr3:uid="{61375415-0EB1-4708-AFF8-3FBB1B04F998}" name="TrangThai"/>
-    <tableColumn id="4" xr3:uid="{D3948EC8-BFD9-46E7-AF7C-B554BAEA6FDA}" name="Quyen"/>
-    <tableColumn id="5" xr3:uid="{77F9481E-172B-4C82-8548-676B5D1CD046}" name="HoTen"/>
-    <tableColumn id="6" xr3:uid="{C002FC8D-9248-4DB6-B893-4515794DCADD}" name="SDT"/>
-    <tableColumn id="7" xr3:uid="{DCF7653C-3561-43B2-A937-17620638FB91}" name="Email"/>
-    <tableColumn id="8" xr3:uid="{C4A1023E-3F31-44BC-85A8-EA2EF9CE3EB3}" name="NgaySinh"/>
-    <tableColumn id="9" xr3:uid="{10536EAC-5A6D-4BA3-B1A7-878B19FB490B}" name="AnhDaiDien"/>
-    <tableColumn id="10" xr3:uid="{91B36EE2-26B3-41C3-AEAE-859F2D2194CD}" name="GioiTinh"/>
-    <tableColumn id="11" xr3:uid="{93020E7C-127B-4779-9BD7-84849F7294F5}" name="DiaChi"/>
-    <tableColumn id="12" xr3:uid="{1DFEE4D1-4448-4CBE-963A-35587B35F6D7}" name="QueQuan"/>
-    <tableColumn id="13" xr3:uid="{A071F435-929F-4215-9473-F0FD75555C0B}" name="CongTy"/>
-    <tableColumn id="14" xr3:uid="{B70429A9-817F-47B3-8138-30CF4BA2266C}" name="ChucVu"/>
-    <tableColumn id="15" xr3:uid="{6E57D275-9015-44A5-8D50-16B78618078A}" name="TieuSu"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62B4680-4981-4B8A-92FD-948E1D565F5B}" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
+  <autoFilter ref="A1:O20" xr:uid="{C62B4680-4981-4B8A-92FD-948E1D565F5B}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{5CFDA6CF-9BC1-4A00-9EF2-7073660DFFE3}" name="UserName"/>
+    <tableColumn id="2" xr3:uid="{248AFCFC-EE3A-4283-9DFC-468399550184}" name="Password"/>
+    <tableColumn id="3" xr3:uid="{D8D3C7E2-FD8C-4F04-A232-B3CB44373287}" name="TrangThai"/>
+    <tableColumn id="4" xr3:uid="{B782EC5E-B4AB-4488-94BB-06EDB184D9D3}" name="Quyen"/>
+    <tableColumn id="5" xr3:uid="{F943430D-F2DD-459E-AF37-D1C912CC666A}" name="HoTen"/>
+    <tableColumn id="6" xr3:uid="{439800F2-21D0-423A-B28E-D73C12B0E36F}" name="SDT"/>
+    <tableColumn id="7" xr3:uid="{E02E7893-AFE1-43FF-9828-E70EEBBC56F4}" name="Email"/>
+    <tableColumn id="8" xr3:uid="{D22ECC7A-F8A3-476D-B925-73BB48D38DC8}" name="NgaySinh" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{E3690458-2D4E-48B7-99D6-1FDC845361D2}" name="AnhDaiDien"/>
+    <tableColumn id="10" xr3:uid="{9D458BBA-6B4B-4B72-BE89-AE7A6663A4E9}" name="GioiTinh"/>
+    <tableColumn id="11" xr3:uid="{725DB117-1E70-4B08-9A21-8F118465427F}" name="DiaChi"/>
+    <tableColumn id="12" xr3:uid="{34AEABBC-527D-43AF-BBF2-057571B32355}" name="QueQuan"/>
+    <tableColumn id="13" xr3:uid="{C540601E-07E7-4C81-AFA6-C1BFD21228D7}" name="CongTy"/>
+    <tableColumn id="14" xr3:uid="{D21B11C5-E1DF-4458-A7AD-8F3514DF4748}" name="ChucVu"/>
+    <tableColumn id="15" xr3:uid="{D9A5BEE1-525B-48DA-85D3-BA9B16C69158}" name="TieuSu"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,31 +501,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1805B66-47B5-402B-BF1C-0786A8258848}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43B868-B8CD-4123-ADA2-C16E66666DE3}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +544,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -545,174 +568,240 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>123123</v>
+      </c>
+      <c r="G2">
+        <v>3213</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>21312</v>
+      </c>
+      <c r="L2">
+        <v>3123</v>
+      </c>
+      <c r="M2">
+        <v>3213</v>
+      </c>
+      <c r="N2">
+        <v>321321</v>
+      </c>
+      <c r="O2">
+        <v>312</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>123123</v>
+      </c>
+      <c r="G3">
+        <v>3213</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>21312</v>
+      </c>
+      <c r="L3">
+        <v>3123</v>
+      </c>
+      <c r="M3">
+        <v>3213</v>
+      </c>
+      <c r="N3">
+        <v>321321</v>
+      </c>
+      <c r="O3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>123123</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
+      <c r="G4">
+        <v>3213</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>21312</v>
+      </c>
+      <c r="L4">
+        <v>3123</v>
+      </c>
+      <c r="M4">
+        <v>3213</v>
+      </c>
+      <c r="N4">
         <v>321321</v>
       </c>
-      <c r="H2">
-        <v>3213</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44719</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="O4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>123123</v>
+      </c>
+      <c r="G5">
+        <v>3213</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>21312</v>
       </c>
-      <c r="M2">
+      <c r="L5">
         <v>3123</v>
       </c>
-      <c r="N2">
-        <v>3213</v>
-      </c>
-      <c r="O2">
+      <c r="M5">
+        <v>3213</v>
+      </c>
+      <c r="N5">
         <v>321321</v>
       </c>
-      <c r="P2">
+      <c r="O5">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>123123</v>
+      </c>
+      <c r="G6">
+        <v>3213</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>21312</v>
+      </c>
+      <c r="L6">
+        <v>3123</v>
+      </c>
+      <c r="M6">
+        <v>3213</v>
+      </c>
+      <c r="N6">
+        <v>321321</v>
+      </c>
+      <c r="O6">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\source\repos\daoquyanh2000\QuanLyHoSo\Assets\Excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B5056-80F5-42BF-8085-0D47B85165E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB88B4-1446-48D7-8B9E-D1A0DB1AAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03ABA2C1-32B5-4CA4-8F80-AADE3ACD1D4D}"/>
+    <workbookView xWindow="9840" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{03ABA2C1-32B5-4CA4-8F80-AADE3ACD1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -505,24 +505,24 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -616,7 +616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -663,7 +663,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -710,7 +710,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -757,7 +757,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\source\repos\daoquyanh2000\QuanLyHoSo\Assets\Excel\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB88B4-1446-48D7-8B9E-D1A0DB1AAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DD04EA-3F4B-45CA-8DB3-FD3671D15DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{03ABA2C1-32B5-4CA4-8F80-AADE3ACD1D4D}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>HoTen</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -43,15 +46,12 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Quyen</t>
+  </si>
+  <si>
     <t>TrangThai</t>
   </si>
   <si>
-    <t>Quyen</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
     <t>SDT</t>
   </si>
   <si>
@@ -82,56 +82,20 @@
     <t>TieuSu</t>
   </si>
   <si>
-    <t>taikhoan1</t>
-  </si>
-  <si>
     <t>tài khoản 1</t>
   </si>
   <si>
     <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
-  </si>
-  <si>
-    <t>taikhoan2</t>
-  </si>
-  <si>
-    <t>taikhoan3</t>
-  </si>
-  <si>
-    <t>taikhoan4</t>
-  </si>
-  <si>
-    <t>taikhoan5</t>
-  </si>
-  <si>
-    <t>tài khoản 2</t>
-  </si>
-  <si>
-    <t>tài khoản 3</t>
-  </si>
-  <si>
-    <t>tài khoản 4</t>
-  </si>
-  <si>
-    <t>tài khoản 5</t>
-  </si>
-  <si>
-    <t>13/7/2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,24 +146,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62B4680-4981-4B8A-92FD-948E1D565F5B}" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
-  <autoFilter ref="A1:O20" xr:uid="{C62B4680-4981-4B8A-92FD-948E1D565F5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DCA5E38-F7E9-4731-A4BE-68242102EBF4}" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
+  <autoFilter ref="A1:O20" xr:uid="{1DCA5E38-F7E9-4731-A4BE-68242102EBF4}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5CFDA6CF-9BC1-4A00-9EF2-7073660DFFE3}" name="UserName"/>
-    <tableColumn id="2" xr3:uid="{248AFCFC-EE3A-4283-9DFC-468399550184}" name="Password"/>
-    <tableColumn id="3" xr3:uid="{D8D3C7E2-FD8C-4F04-A232-B3CB44373287}" name="TrangThai"/>
-    <tableColumn id="4" xr3:uid="{B782EC5E-B4AB-4488-94BB-06EDB184D9D3}" name="Quyen"/>
-    <tableColumn id="5" xr3:uid="{F943430D-F2DD-459E-AF37-D1C912CC666A}" name="HoTen"/>
-    <tableColumn id="6" xr3:uid="{439800F2-21D0-423A-B28E-D73C12B0E36F}" name="SDT"/>
-    <tableColumn id="7" xr3:uid="{E02E7893-AFE1-43FF-9828-E70EEBBC56F4}" name="Email"/>
-    <tableColumn id="8" xr3:uid="{D22ECC7A-F8A3-476D-B925-73BB48D38DC8}" name="NgaySinh" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E3690458-2D4E-48B7-99D6-1FDC845361D2}" name="AnhDaiDien"/>
-    <tableColumn id="10" xr3:uid="{9D458BBA-6B4B-4B72-BE89-AE7A6663A4E9}" name="GioiTinh"/>
-    <tableColumn id="11" xr3:uid="{725DB117-1E70-4B08-9A21-8F118465427F}" name="DiaChi"/>
-    <tableColumn id="12" xr3:uid="{34AEABBC-527D-43AF-BBF2-057571B32355}" name="QueQuan"/>
-    <tableColumn id="13" xr3:uid="{C540601E-07E7-4C81-AFA6-C1BFD21228D7}" name="CongTy"/>
-    <tableColumn id="14" xr3:uid="{D21B11C5-E1DF-4458-A7AD-8F3514DF4748}" name="ChucVu"/>
-    <tableColumn id="15" xr3:uid="{D9A5BEE1-525B-48DA-85D3-BA9B16C69158}" name="TieuSu"/>
+    <tableColumn id="1" xr3:uid="{B2E0A29C-093A-46DB-AA19-BEF1708C5EA6}" name="HoTen"/>
+    <tableColumn id="2" xr3:uid="{83567D9F-A87E-4333-B115-651F2F395654}" name="UserName"/>
+    <tableColumn id="3" xr3:uid="{6191AC76-1549-4E02-B0FC-D762A1557B90}" name="Password"/>
+    <tableColumn id="4" xr3:uid="{B5224D5E-B2EB-47E6-8DB1-278D3B777676}" name="Quyen"/>
+    <tableColumn id="5" xr3:uid="{2D0C3AA9-E61E-437F-B682-E2C6BCD1157A}" name="TrangThai"/>
+    <tableColumn id="6" xr3:uid="{A53A9640-5266-48CF-973B-E795ABB6F002}" name="SDT"/>
+    <tableColumn id="7" xr3:uid="{A7D03DDD-D972-4AC4-B446-7A8273DD5534}" name="Email"/>
+    <tableColumn id="8" xr3:uid="{44ECA6AC-BA71-4725-B965-CCCFE689D34F}" name="NgaySinh" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{40C3B978-E370-48C2-858E-829A5F056BE5}" name="AnhDaiDien"/>
+    <tableColumn id="10" xr3:uid="{3CA97974-730A-4FF9-BA1F-506F1EE32F12}" name="GioiTinh"/>
+    <tableColumn id="11" xr3:uid="{39E63E3C-9692-4049-8F5C-1C8ACD0E647A}" name="DiaChi"/>
+    <tableColumn id="12" xr3:uid="{4E4E536F-F79F-4F65-B6CA-42932663B17A}" name="QueQuan"/>
+    <tableColumn id="13" xr3:uid="{0C585223-1E40-4429-8FEF-D6ECDD355B5B}" name="CongTy"/>
+    <tableColumn id="14" xr3:uid="{A78F16D3-4506-428B-B1ED-388B550E44E4}" name="ChucVu"/>
+    <tableColumn id="15" xr3:uid="{6DEC75B7-FF50-4A2E-B660-6A3E485E869A}" name="TieuSu"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,28 +465,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43B868-B8CD-4123-ADA2-C16E66666DE3}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABBC157-9058-44E1-98DF-BFEED6F66D6C}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,21 +533,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>123456</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>123123</v>
@@ -591,11 +555,11 @@
       <c r="G2">
         <v>3213</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
+      <c r="H2" s="1">
+        <v>36526</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -616,21 +580,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>123456</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
       <c r="F3">
         <v>123123</v>
@@ -638,46 +602,22 @@
       <c r="G3">
         <v>3213</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>21312</v>
-      </c>
-      <c r="L3">
-        <v>3123</v>
-      </c>
-      <c r="M3">
-        <v>3213</v>
-      </c>
-      <c r="N3">
-        <v>321321</v>
-      </c>
-      <c r="O3">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>123456</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4">
         <v>123123</v>
@@ -685,130 +625,84 @@
       <c r="G4">
         <v>3213</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>21312</v>
-      </c>
-      <c r="L4">
-        <v>3123</v>
-      </c>
-      <c r="M4">
-        <v>3213</v>
-      </c>
-      <c r="N4">
-        <v>321321</v>
-      </c>
-      <c r="O4">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>123456</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>123123</v>
-      </c>
-      <c r="G5">
-        <v>3213</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>21312</v>
-      </c>
-      <c r="L5">
-        <v>3123</v>
-      </c>
-      <c r="M5">
-        <v>3213</v>
-      </c>
-      <c r="N5">
-        <v>321321</v>
-      </c>
-      <c r="O5">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>123456</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>123123</v>
-      </c>
-      <c r="G6">
-        <v>3213</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>21312</v>
-      </c>
-      <c r="L6">
-        <v>3123</v>
-      </c>
-      <c r="M6">
-        <v>3213</v>
-      </c>
-      <c r="N6">
-        <v>321321</v>
-      </c>
-      <c r="O6">
-        <v>312</v>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DD04EA-3F4B-45CA-8DB3-FD3671D15DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B82BB-CF3C-48C0-9935-D0E399975881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
+    <workbookView xWindow="8532" yWindow="1212" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>HoTen</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Quyen</t>
-  </si>
-  <si>
     <t>TrangThai</t>
   </si>
   <si>
@@ -86,12 +83,24 @@
   </si>
   <si>
     <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
+  </si>
+  <si>
+    <t>MaKieu</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>qlnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,7 +140,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,7 +162,7 @@
     <tableColumn id="1" xr3:uid="{B2E0A29C-093A-46DB-AA19-BEF1708C5EA6}" name="HoTen"/>
     <tableColumn id="2" xr3:uid="{83567D9F-A87E-4333-B115-651F2F395654}" name="UserName"/>
     <tableColumn id="3" xr3:uid="{6191AC76-1549-4E02-B0FC-D762A1557B90}" name="Password"/>
-    <tableColumn id="4" xr3:uid="{B5224D5E-B2EB-47E6-8DB1-278D3B777676}" name="Quyen"/>
+    <tableColumn id="4" xr3:uid="{B5224D5E-B2EB-47E6-8DB1-278D3B777676}" name="MaKieu"/>
     <tableColumn id="5" xr3:uid="{2D0C3AA9-E61E-437F-B682-E2C6BCD1157A}" name="TrangThai"/>
     <tableColumn id="6" xr3:uid="{A53A9640-5266-48CF-973B-E795ABB6F002}" name="SDT"/>
     <tableColumn id="7" xr3:uid="{A7D03DDD-D972-4AC4-B446-7A8273DD5534}" name="Email"/>
@@ -466,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABBC157-9058-44E1-98DF-BFEED6F66D6C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,45 +507,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -543,8 +553,8 @@
       <c r="C2">
         <v>123456</v>
       </c>
-      <c r="D2">
-        <v>50</v>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -555,11 +565,11 @@
       <c r="G2">
         <v>3213</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>36526</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -581,34 +591,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>123123</v>
-      </c>
-      <c r="G3">
-        <v>3213</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36526</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,19 +603,20 @@
       <c r="C4">
         <v>123456</v>
       </c>
-      <c r="D4">
-        <v>50</v>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>123123</v>
       </c>
-      <c r="G4">
-        <v>3213</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -636,16 +624,17 @@
       <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D5">
-        <v>50</v>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -653,13 +642,14 @@
       <c r="C6">
         <v>123456</v>
       </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -667,35 +657,56 @@
       <c r="C7">
         <v>123456</v>
       </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>50</v>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>123456</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>123123</v>
+      </c>
+      <c r="G12">
+        <v>3213</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B82BB-CF3C-48C0-9935-D0E399975881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC145C0-1E3E-444D-8330-04935C95DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="1212" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>HoTen</t>
   </si>
@@ -92,6 +92,36 @@
   </si>
   <si>
     <t>qlnd</t>
+  </si>
+  <si>
+    <t>tài khoản 2</t>
+  </si>
+  <si>
+    <t>tài khoản 3</t>
+  </si>
+  <si>
+    <t>tài khoản 4</t>
+  </si>
+  <si>
+    <t>tài khoản 5</t>
+  </si>
+  <si>
+    <t>tài khoản 6</t>
+  </si>
+  <si>
+    <t>tài khoản 7</t>
+  </si>
+  <si>
+    <t>tài khoản 8</t>
+  </si>
+  <si>
+    <t>tài khoản 9</t>
+  </si>
+  <si>
+    <t>tài khoản 10</t>
+  </si>
+  <si>
+    <t>tài khoản 11</t>
   </si>
 </sst>
 </file>
@@ -101,10 +131,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,7 +515,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>123123</v>
@@ -591,11 +627,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -607,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>123123</v>
@@ -616,7 +658,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -628,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -645,11 +687,14 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -660,11 +705,14 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -672,11 +720,14 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -684,11 +735,30 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -700,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>123123</v>
@@ -710,6 +780,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC145C0-1E3E-444D-8330-04935C95DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B82BB-CF3C-48C0-9935-D0E399975881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
+    <workbookView xWindow="8532" yWindow="1212" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>HoTen</t>
   </si>
@@ -92,36 +92,6 @@
   </si>
   <si>
     <t>qlnd</t>
-  </si>
-  <si>
-    <t>tài khoản 2</t>
-  </si>
-  <si>
-    <t>tài khoản 3</t>
-  </si>
-  <si>
-    <t>tài khoản 4</t>
-  </si>
-  <si>
-    <t>tài khoản 5</t>
-  </si>
-  <si>
-    <t>tài khoản 6</t>
-  </si>
-  <si>
-    <t>tài khoản 7</t>
-  </si>
-  <si>
-    <t>tài khoản 8</t>
-  </si>
-  <si>
-    <t>tài khoản 9</t>
-  </si>
-  <si>
-    <t>tài khoản 10</t>
-  </si>
-  <si>
-    <t>tài khoản 11</t>
   </si>
 </sst>
 </file>
@@ -131,16 +101,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,7 +479,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>123123</v>
@@ -627,17 +591,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -649,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>123123</v>
@@ -658,7 +616,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -670,13 +628,13 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -687,14 +645,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -705,14 +660,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -720,14 +672,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -735,30 +684,11 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -770,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>123123</v>
@@ -780,7 +710,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B82BB-CF3C-48C0-9935-D0E399975881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E2741-2DBC-4A47-99A6-0544A7F80149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="1212" windowWidth="14508" windowHeight="8964" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>123123</v>
@@ -591,6 +591,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -607,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>123123</v>
@@ -628,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -645,6 +648,9 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -660,6 +666,9 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -672,6 +681,9 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -684,7 +696,20 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -700,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>123123</v>

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -8,34 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E2741-2DBC-4A47-99A6-0544A7F80149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C94AB-7345-411A-A9F9-F5CA38FD2ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C36C905-F9B5-40D3-B57A-940CD66F6CDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="ThongTinBang" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>HoTen</t>
   </si>
@@ -46,6 +32,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>MaKieu</t>
+  </si>
+  <si>
     <t>TrangThai</t>
   </si>
   <si>
@@ -58,56 +47,122 @@
     <t>NgaySinh</t>
   </si>
   <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>QueQuan</t>
+  </si>
+  <si>
+    <t>CongTy</t>
+  </si>
+  <si>
+    <t>ChucVu</t>
+  </si>
+  <si>
+    <t>TieuSu</t>
+  </si>
+  <si>
     <t>AnhDaiDien</t>
   </si>
   <si>
-    <t>GioiTinh</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
-  </si>
-  <si>
-    <t>QueQuan</t>
-  </si>
-  <si>
-    <t>CongTy</t>
-  </si>
-  <si>
-    <t>ChucVu</t>
-  </si>
-  <si>
-    <t>TieuSu</t>
-  </si>
-  <si>
-    <t>tài khoản 1</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
-  </si>
-  <si>
-    <t>MaKieu</t>
+    <t>TenKieu</t>
+  </si>
+  <si>
+    <t>MaGioiTinh</t>
+  </si>
+  <si>
+    <t>MaTrangThai</t>
+  </si>
+  <si>
+    <t>TenAnhDaiDien</t>
+  </si>
+  <si>
+    <t>DuongDan</t>
+  </si>
+  <si>
+    <t>admin siêu đẹp trai</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/1_637928104326149158.png</t>
+  </si>
+  <si>
+    <t>quản lý người dùng</t>
+  </si>
+  <si>
     <t>qlnd</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Mở</t>
+  </si>
+  <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/2_637928104326248880.png</t>
+  </si>
+  <si>
+    <t>quản lý knd</t>
+  </si>
+  <si>
+    <t>qlknd</t>
+  </si>
+  <si>
+    <t>3.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/3_637928104326438386.png</t>
+  </si>
+  <si>
+    <t>vô danh tiểu tốt</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/4_637928104326548080.png</t>
+  </si>
+  <si>
+    <t>quản lý hồ sơ</t>
+  </si>
+  <si>
+    <t>qlhs</t>
+  </si>
+  <si>
+    <t>quản lý đơn vị</t>
+  </si>
+  <si>
+    <t>qldv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,19 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,26 +208,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DCA5E38-F7E9-4731-A4BE-68242102EBF4}" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
-  <autoFilter ref="A1:O20" xr:uid="{1DCA5E38-F7E9-4731-A4BE-68242102EBF4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B2E0A29C-093A-46DB-AA19-BEF1708C5EA6}" name="HoTen"/>
-    <tableColumn id="2" xr3:uid="{83567D9F-A87E-4333-B115-651F2F395654}" name="UserName"/>
-    <tableColumn id="3" xr3:uid="{6191AC76-1549-4E02-B0FC-D762A1557B90}" name="Password"/>
-    <tableColumn id="4" xr3:uid="{B5224D5E-B2EB-47E6-8DB1-278D3B777676}" name="MaKieu"/>
-    <tableColumn id="5" xr3:uid="{2D0C3AA9-E61E-437F-B682-E2C6BCD1157A}" name="TrangThai"/>
-    <tableColumn id="6" xr3:uid="{A53A9640-5266-48CF-973B-E795ABB6F002}" name="SDT"/>
-    <tableColumn id="7" xr3:uid="{A7D03DDD-D972-4AC4-B446-7A8273DD5534}" name="Email"/>
-    <tableColumn id="8" xr3:uid="{44ECA6AC-BA71-4725-B965-CCCFE689D34F}" name="NgaySinh" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{40C3B978-E370-48C2-858E-829A5F056BE5}" name="AnhDaiDien"/>
-    <tableColumn id="10" xr3:uid="{3CA97974-730A-4FF9-BA1F-506F1EE32F12}" name="GioiTinh"/>
-    <tableColumn id="11" xr3:uid="{39E63E3C-9692-4049-8F5C-1C8ACD0E647A}" name="DiaChi"/>
-    <tableColumn id="12" xr3:uid="{4E4E536F-F79F-4F65-B6CA-42932663B17A}" name="QueQuan"/>
-    <tableColumn id="13" xr3:uid="{0C585223-1E40-4429-8FEF-D6ECDD355B5B}" name="CongTy"/>
-    <tableColumn id="14" xr3:uid="{A78F16D3-4506-428B-B1ED-388B550E44E4}" name="ChucVu"/>
-    <tableColumn id="15" xr3:uid="{6DEC75B7-FF50-4A2E-B660-6A3E485E869A}" name="TieuSu"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HoTen"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Password"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MaKieu"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TrangThai"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SDT"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Email"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NgaySinh"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GioiTinh"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DiaChi"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QueQuan"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CongTy"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ChucVu"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TieuSu"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AnhDaiDien"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B7">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenKieu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaKieu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="D1:E3">
+  <autoFilter ref="D1:E3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="GioiTinh"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="MaGioiTinh"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="G1:H3">
+  <autoFilter ref="G1:H3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TrangThai"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="MaTrangThai"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="J1:K5">
+  <autoFilter ref="J1:K5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TenAnhDaiDien"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DuongDan"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -475,270 +571,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABBC157-9058-44E1-98DF-BFEED6F66D6C}">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>123</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>123123</v>
+        <v>13123</v>
       </c>
       <c r="G2">
-        <v>3213</v>
+        <v>213123</v>
       </c>
       <c r="H2" s="2">
-        <v>36526</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>36558</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>21312</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>3123</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>3213</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>321321</v>
-      </c>
-      <c r="O2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>123123</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>123456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>123456</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>123456</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>123123</v>
-      </c>
-      <c r="G12">
-        <v>3213</v>
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" xr:uid="{F8CBFC92-ED34-4321-AFAB-75E8B9AE0F99}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$K$2:$K$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{E0991155-AA58-45DF-89CF-DB1C5E83C014}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{1B9F4042-1716-4C58-B7AE-037EA3468CF8}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{FA6D6762-1CA7-4020-BCC0-DF9AA1B00EF8}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C94AB-7345-411A-A9F9-F5CA38FD2ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB020B-9964-4E42-AFAC-99A2862CD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>1.png</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/1_637928104326149158.png</t>
+    <t>1545130_288016768030903_2199143617119502561_n.jpg</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/1545130_288016768030903_2199143617119502561_n_637928409593639885.jpg</t>
   </si>
   <si>
     <t>quản lý người dùng</t>
@@ -113,10 +113,10 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>2.png</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/2_637928104326248880.png</t>
+    <t>1546135_288016861364227_1275175656542392177_n (1).jpg</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/1546135_288016861364227_1275175656542392177_n (1)_637928409593659862.jpg</t>
   </si>
   <si>
     <t>quản lý knd</t>
@@ -125,10 +125,10 @@
     <t>qlknd</t>
   </si>
   <si>
-    <t>3.png</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/3_637928104326438386.png</t>
+    <t>10401987_1609988362552899_7782344116794459612_n.jpg</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/10401987_1609988362552899_7782344116794459612_n_637928409593659862.jpg</t>
   </si>
   <si>
     <t>vô danh tiểu tốt</t>
@@ -137,12 +137,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>4.png</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/4_637928104326548080.png</t>
-  </si>
-  <si>
     <t>quản lý hồ sơ</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>qldv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khanh </t>
+  </si>
+  <si>
+    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="J1:K5">
-  <autoFilter ref="J1:K5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="J1:K4">
+  <autoFilter ref="J1:K4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TenAnhDaiDien"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DuongDan"/>
@@ -575,25 +575,25 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -644,47 +644,29 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
         <v>123</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>13123</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>213123</v>
-      </c>
-      <c r="H2" s="2">
-        <v>36558</v>
+        <v>123</v>
       </c>
       <c r="I2">
         <v>1</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
@@ -698,25 +680,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" xr:uid="{F8CBFC92-ED34-4321-AFAB-75E8B9AE0F99}">
+        <x14:dataValidation type="list" xr:uid="{BD16BA06-4B71-4BA6-A14A-C0549C209E73}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$K$2:$K$5</xm:f>
+            <xm:f>ThongTinBang!$K$2:$K$4</xm:f>
           </x14:formula1>
           <xm:sqref>O2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{E0991155-AA58-45DF-89CF-DB1C5E83C014}">
+        <x14:dataValidation type="list" xr:uid="{5D895D47-E29B-4177-82E0-EB6A02E4D56E}">
           <x14:formula1>
             <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{1B9F4042-1716-4C58-B7AE-037EA3468CF8}">
+        <x14:dataValidation type="list" xr:uid="{AF9326B1-AFF1-4A75-B0E4-A1C74D86087D}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{FA6D6762-1CA7-4020-BCC0-DF9AA1B00EF8}">
+        <x14:dataValidation type="list" xr:uid="{AAFF671E-CD16-4AA6-8A0A-542406A2A2A1}">
           <x14:formula1>
             <xm:f>ThongTinBang!$H$2:$H$3</xm:f>
           </x14:formula1>
@@ -732,20 +714,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="53" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="56" customWidth="1"/>
+    <col min="11" max="11" width="103.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -847,27 +829,21 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB020B-9964-4E42-AFAC-99A2862CD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC814DB5-F1EE-440D-BE86-3DCC6F7BCC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>HoTen</t>
   </si>
@@ -77,12 +77,6 @@
     <t>MaTrangThai</t>
   </si>
   <si>
-    <t>TenAnhDaiDien</t>
-  </si>
-  <si>
-    <t>DuongDan</t>
-  </si>
-  <si>
     <t>admin siêu đẹp trai</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>1545130_288016768030903_2199143617119502561_n.jpg</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/1545130_288016768030903_2199143617119502561_n_637928409593639885.jpg</t>
-  </si>
-  <si>
     <t>quản lý người dùng</t>
   </si>
   <si>
@@ -113,24 +101,12 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>1546135_288016861364227_1275175656542392177_n (1).jpg</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/1546135_288016861364227_1275175656542392177_n (1)_637928409593659862.jpg</t>
-  </si>
-  <si>
     <t>quản lý knd</t>
   </si>
   <si>
     <t>qlknd</t>
   </si>
   <si>
-    <t>10401987_1609988362552899_7782344116794459612_n.jpg</t>
-  </si>
-  <si>
-    <t>/Assets/Images/Avatars/User/10401987_1609988362552899_7782344116794459612_n_637928409593659862.jpg</t>
-  </si>
-  <si>
     <t>vô danh tiểu tốt</t>
   </si>
   <si>
@@ -147,12 +123,6 @@
   </si>
   <si>
     <t>qldv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khanh </t>
-  </si>
-  <si>
-    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -194,7 +164,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -211,20 +206,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HoTen"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Password"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HoTen" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Password" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MaKieu"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TrangThai"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SDT"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Email"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NgaySinh"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GioiTinh"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DiaChi"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QueQuan"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CongTy"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ChucVu"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TieuSu"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DiaChi" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QueQuan" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CongTy" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ChucVu" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TieuSu" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AnhDaiDien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -259,17 +254,6 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TrangThai"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="MaTrangThai"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="J1:K4">
-  <autoFilter ref="J1:K4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TenAnhDaiDien"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DuongDan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,7 +559,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,17 +628,17 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -665,11 +649,26 @@
       <c r="G2">
         <v>123</v>
       </c>
+      <c r="H2" s="2">
+        <v>36558</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -679,26 +678,20 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" xr:uid="{BD16BA06-4B71-4BA6-A14A-C0549C209E73}">
-          <x14:formula1>
-            <xm:f>ThongTinBang!$K$2:$K$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{5D895D47-E29B-4177-82E0-EB6A02E4D56E}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" xr:uid="{14C06EE2-8749-4A8B-9F6C-31202F31E4F0}">
           <x14:formula1>
             <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{AF9326B1-AFF1-4A75-B0E4-A1C74D86087D}">
+        <x14:dataValidation type="list" xr:uid="{6E02E518-2E89-4EA8-A696-E871DD0F8717}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{AAFF671E-CD16-4AA6-8A0A-542406A2A2A1}">
+        <x14:dataValidation type="list" xr:uid="{A276B030-8018-4851-9183-E3292210B779}">
           <x14:formula1>
             <xm:f>ThongTinBang!$H$2:$H$3</xm:f>
           </x14:formula1>
@@ -712,11 +705,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -726,11 +717,9 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="56" customWidth="1"/>
-    <col min="11" max="11" width="103.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,110 +738,85 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Excel/User/User.xlsx
+++ b/Assets/Excel/User/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC814DB5-F1EE-440D-BE86-3DCC6F7BCC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB8EDB-3BC7-43DD-8086-E6398A977F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>HoTen</t>
   </si>
@@ -77,6 +77,12 @@
     <t>MaTrangThai</t>
   </si>
   <si>
+    <t>TenAnhDaiDien</t>
+  </si>
+  <si>
+    <t>DuongDan</t>
+  </si>
+  <si>
     <t>admin siêu đẹp trai</t>
   </si>
   <si>
@@ -89,6 +95,12 @@
     <t>Đóng</t>
   </si>
   <si>
+    <t>B18DCDT003_Anh.jpg</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/B18DCDT003_Anh_637944535064223267.jpg</t>
+  </si>
+  <si>
     <t>quản lý người dùng</t>
   </si>
   <si>
@@ -101,18 +113,36 @@
     <t>Mở</t>
   </si>
   <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/2_637944535064243244.png</t>
+  </si>
+  <si>
     <t>quản lý knd</t>
   </si>
   <si>
     <t>qlknd</t>
   </si>
   <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/1_637944535064362918.png</t>
+  </si>
+  <si>
     <t>vô danh tiểu tốt</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
+    <t>stretched-1920-1080-1214626.jpg</t>
+  </si>
+  <si>
+    <t>/Assets/Images/Avatars/User/stretched-1920-1080-1214626_637944535064452681.jpg</t>
+  </si>
+  <si>
     <t>quản lý hồ sơ</t>
   </si>
   <si>
@@ -123,15 +153,40 @@
   </si>
   <si>
     <t>qldv</t>
+  </si>
+  <si>
+    <t>quyanh1</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>quyanh2</t>
+  </si>
+  <si>
+    <t>quyanh3</t>
+  </si>
+  <si>
+    <t>quyanh4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -152,44 +207,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,23 +234,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O5">
+  <autoFilter ref="A1:O5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HoTen" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Password" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HoTen"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Password"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MaKieu"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TrangThai"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SDT"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Email"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NgaySinh"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GioiTinh"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DiaChi" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QueQuan" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CongTy" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ChucVu" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TieuSu" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DiaChi"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="QueQuan"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CongTy"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ChucVu"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TieuSu"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AnhDaiDien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -254,6 +285,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TrangThai"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="MaTrangThai"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="J1:K5">
+  <autoFilter ref="J1:K5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TenAnhDaiDien"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DuongDan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,89 +598,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -646,56 +688,212 @@
       <c r="F2">
         <v>123</v>
       </c>
-      <c r="G2">
-        <v>123</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1">
         <v>36558</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>123</v>
+      </c>
+      <c r="K2">
+        <v>123</v>
+      </c>
+      <c r="L2">
+        <v>123</v>
+      </c>
+      <c r="M2">
+        <v>123</v>
+      </c>
+      <c r="N2">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36558</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3">
+        <v>123</v>
+      </c>
+      <c r="L3">
+        <v>123</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+      <c r="N3">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36558</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>123</v>
+      </c>
+      <c r="K4">
+        <v>123</v>
+      </c>
+      <c r="L4">
+        <v>123</v>
+      </c>
+      <c r="M4">
+        <v>123</v>
+      </c>
+      <c r="N4">
+        <v>123</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36558</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>123</v>
+      </c>
+      <c r="K5">
+        <v>123</v>
+      </c>
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5">
+        <v>123</v>
+      </c>
+      <c r="N5">
+        <v>123</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{656FB83E-8FC6-4ABA-9B18-A347AAC8ED8B}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7F414151-CCEC-4240-A8C1-79533935318F}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{A331C2AC-A778-41FC-BDDD-8D52FD692B33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" xr:uid="{14C06EE2-8749-4A8B-9F6C-31202F31E4F0}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" xr:uid="{B2DA0901-DB86-4A0D-BAE0-D756A3E60C23}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$K$2:$K$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{CB791B0A-6618-4CA9-AE7A-0FA5B070635E}">
           <x14:formula1>
             <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{6E02E518-2E89-4EA8-A696-E871DD0F8717}">
+        <x14:dataValidation type="list" xr:uid="{1C2A9610-DA5C-46E6-8B0D-B20BC3F7E5C3}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{A276B030-8018-4851-9183-E3292210B779}">
+        <x14:dataValidation type="list" xr:uid="{6BD245B6-C341-49FA-A250-01E0BD02B8C0}">
           <x14:formula1>
             <xm:f>ThongTinBang!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
+          <xm:sqref>I2:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -705,118 +903,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="78.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>